--- a/config/optimization_engine/config_optimization/MapTanks.xlsx
+++ b/config/optimization_engine/config_optimization/MapTanks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="11220"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Y1</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>OUT</t>
+  </si>
+  <si>
+    <t>TL1</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>TL2</t>
+  </si>
+  <si>
+    <t>TL3</t>
   </si>
 </sst>
 </file>
@@ -400,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,30 +478,72 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
